--- a/Tools/JsonSharp/JsonSharp/bin/Debug/Character.xlsx
+++ b/Tools/JsonSharp/JsonSharp/bin/Debug/Character.xlsx
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,14 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -174,6 +166,18 @@
   </si>
   <si>
     <t>111_112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testArray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,012,12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -264,8 +268,36 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -567,14 +599,15 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="18.5" style="1" customWidth="1"/>
-    <col min="4" max="5" width="15.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="51.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="48.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.5" style="1" bestFit="1" customWidth="1"/>
@@ -590,16 +623,16 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
@@ -616,13 +649,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>5</v>
@@ -633,19 +666,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>7</v>
@@ -659,22 +692,22 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="2">
-        <v>0</v>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
